--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,12 +1202,16 @@
       <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -1259,7 +1263,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1424,10 +1430,10 @@
       <c r="D23" s="7">
         <v>3.3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="7"/>
+      <c r="F23" s="8">
         <v>3.3</v>
       </c>
-      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,16 +1202,12 @@
       <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -1263,9 +1259,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1430,10 +1424,10 @@
       <c r="D23" s="7">
         <v>3.3</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8">
+      <c r="E23" s="7">
         <v>3.3</v>
       </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,12 +1202,16 @@
       <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -1259,7 +1263,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1424,10 +1430,10 @@
       <c r="D23" s="7">
         <v>3.3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="7"/>
+      <c r="F23" s="8">
         <v>3.3</v>
       </c>
-      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>Flávio</t>
   </si>
@@ -244,16 +244,10 @@
     <t>2.2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">         Registar requisição</t>
-  </si>
-  <si>
     <t>2.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">         editar linhas tabelas</t>
-  </si>
-  <si>
-    <t>2.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">         apagar linhas tabelas</t>
@@ -1016,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1576,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -1591,13 +1585,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>78</v>
@@ -1605,9 +1599,7 @@
       <c r="C34" s="9">
         <v>1</v>
       </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9">
         <v>1</v>
       </c>
@@ -1615,49 +1607,49 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
       <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
+      <c r="C37" s="7"/>
       <c r="D37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -1668,10 +1660,10 @@
       <c r="B38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5">
         <v>1</v>
       </c>
@@ -1687,7 +1679,9 @@
       <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
       <c r="E39" s="7">
         <v>1</v>
       </c>
@@ -1711,7 +1705,7 @@
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>89</v>
       </c>
@@ -1722,35 +1716,29 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E41" s="7"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>3</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1759,22 +1747,30 @@
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>5</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>30</v>
@@ -1796,18 +1792,12 @@
       <c r="B46" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>30</v>
-      </c>
+      <c r="C46" s="31">
+        <v>1</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -1830,11 +1820,11 @@
       <c r="B48" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1849,9 @@
         <v>104</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
@@ -1872,16 +1864,16 @@
       <c r="B51" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
       <c r="D51" s="7">
         <v>1</v>
       </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>107</v>
       </c>
@@ -1891,66 +1883,62 @@
       <c r="C52" s="9">
         <v>1</v>
       </c>
-      <c r="D52" s="9">
-        <v>1</v>
-      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="C53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
+      <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1958,11 +1946,11 @@
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>115</v>
+      <c r="A57" s="19">
+        <v>6</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -610,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -702,6 +702,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1010,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1485,9 @@
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -1578,16 +1593,14 @@
       <c r="B33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="7">
         <v>1</v>
       </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
@@ -1599,7 +1612,9 @@
       <c r="C34" s="9">
         <v>1</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
@@ -1635,7 +1650,9 @@
       <c r="E36" s="5">
         <v>2</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
@@ -1660,14 +1677,14 @@
       <c r="B38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5">
         <v>1</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
@@ -1685,7 +1702,9 @@
       <c r="E39" s="7">
         <v>1</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -1703,7 +1722,9 @@
       <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
@@ -1785,19 +1806,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="31">
-        <v>1</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="C46" s="37">
+        <v>1</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -1825,7 +1846,9 @@
       <c r="E48" s="5">
         <v>1</v>
       </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
@@ -1839,7 +1862,9 @@
       <c r="E49" s="7">
         <v>1</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -1871,7 +1896,9 @@
         <v>1</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
@@ -1887,39 +1914,41 @@
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="C53" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31">
-        <v>1</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37">
+        <v>1</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,23 +1766,23 @@
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+    <row r="44" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
         <v>5</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="C44" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,9 @@
       <c r="B33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,15 +1698,9 @@
       <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
-        <v>2</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8">
-        <v>3</v>
-      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -1718,15 +1712,9 @@
       <c r="C40" s="9">
         <v>1</v>
       </c>
-      <c r="D40" s="9">
-        <v>2</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10">
-        <v>3</v>
-      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
@@ -1741,8 +1729,12 @@
       <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>Flávio</t>
   </si>
@@ -281,12 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve">      pesquisa de requisições por livro</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pesquisar qualquer tabela por qualquer campo</t>
   </si>
   <si>
     <t xml:space="preserve">   Reunião 22/5</t>
@@ -1021,9 +1015,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -1596,12 +1590,12 @@
       <c r="C33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
       <c r="F33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1663,10 +1657,10 @@
       <c r="B37" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7">
         <v>1</v>
       </c>
@@ -1716,281 +1710,261 @@
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>3</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>4</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>3</v>
-      </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>5</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
+      <c r="B44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="37">
+        <v>1</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
-        <v>5</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="37">
-        <v>1</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="9">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="C53" s="37"/>
+      <c r="D53" s="37">
+        <v>1</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="B54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37">
-        <v>1</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
         <v>6</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
         <v>6</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1628,9 @@
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -1673,11 +1675,11 @@
       <c r="B38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="10">
         <v>1</v>
       </c>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="128">
   <si>
     <t>Flávio</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Task Name</t>
   </si>
   <si>
-    <t xml:space="preserve">         Login</t>
-  </si>
-  <si>
     <t>WBS</t>
   </si>
   <si>
@@ -160,15 +157,6 @@
     <t xml:space="preserve">   Sprint 2</t>
   </si>
   <si>
-    <t xml:space="preserve">      Reunião 12/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Conclusão sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Conclusão do projeto</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Relatório Scrum</t>
   </si>
   <si>
@@ -337,19 +325,79 @@
     <t xml:space="preserve">      Ocultar colunas nas pesquisas a pedido do utilizador</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      scene de login</t>
-  </si>
-  <si>
-    <t>5.5.1</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Validar NIF segundo formula oficial e não deixar nifs iguais</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Adicionar coluna "dias em atraso"</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Tipo de Utilizador (aluno, func ou docente) - Nova coluna</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Listagem por entregas (ordenar por mais antigo)</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pesquisar por nome e outros campos (fazer o menu)</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bloquear utilizadores que tenham livros por entregar</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Alerta de utilizadores com x dias em atraso (a pedir o x)</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Definir multas, x por dia (a pedir x)</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Estatisticas..</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Login</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Reunião 12/6</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conclusão sprint 2</t>
+  </si>
+  <si>
+    <t>Conclusão do projeto</t>
   </si>
 </sst>
 </file>
@@ -394,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -565,9 +619,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -580,9 +632,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -595,16 +645,14 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -688,6 +736,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -698,17 +754,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1015,23 +1069,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="37.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="11"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>3</v>
@@ -1046,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,22 +1108,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,30 +1131,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1111,35 +1165,35 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -1150,10 +1204,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1166,10 +1220,10 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9">
         <v>2.2999999999999998</v>
@@ -1182,10 +1236,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -1198,10 +1252,10 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
@@ -1216,30 +1270,30 @@
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -1252,10 +1306,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1270,10 +1324,10 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -1286,30 +1340,30 @@
     </row>
     <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1320,10 +1374,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1334,10 +1388,10 @@
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -1350,10 +1404,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -1368,10 +1422,10 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1383,47 +1437,47 @@
         <v>2</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -1438,10 +1492,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -1452,10 +1506,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1468,10 +1522,10 @@
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1486,30 +1540,30 @@
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -1520,10 +1574,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -1534,10 +1588,10 @@
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -1548,10 +1602,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -1566,10 +1620,10 @@
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -1582,10 +1636,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -1600,10 +1654,10 @@
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
@@ -1618,10 +1672,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7">
@@ -1634,10 +1688,10 @@
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -1654,10 +1708,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -1670,10 +1724,10 @@
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -1686,10 +1740,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -1700,10 +1754,10 @@
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -1717,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1729,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1741,61 +1795,61 @@
         <v>5</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="37">
-        <v>1</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
+        <v>90</v>
+      </c>
+      <c r="C45" s="33">
+        <v>1</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
@@ -1806,76 +1860,62 @@
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
       <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C51" s="9">
         <v>1</v>
@@ -1884,89 +1924,199 @@
       <c r="E51" s="9"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37">
-        <v>1</v>
-      </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
-        <v>6</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>50</v>
+      <c r="B56" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33">
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="45">
+        <v>1</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="41">
         <v>6</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
+      <c r="B64" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t>Flávio</t>
   </si>
@@ -376,9 +376,6 @@
     <t>5.15</t>
   </si>
   <si>
-    <t xml:space="preserve">   Estatisticas..</t>
-  </si>
-  <si>
     <t>5.16</t>
   </si>
   <si>
@@ -391,13 +388,13 @@
     <t xml:space="preserve">   Reunião 12/6</t>
   </si>
   <si>
-    <t>5.18</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Conclusão sprint 2</t>
   </si>
   <si>
     <t>Conclusão do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Confirmação Sair</t>
   </si>
 </sst>
 </file>
@@ -652,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -711,9 +708,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,33 +730,87 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,16 +1117,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="52.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="52.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="11"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1099,30 +1147,30 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1268,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1386,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -1432,7 +1480,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>2</v>
       </c>
@@ -1452,23 +1500,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="32" t="s">
+      <c r="C22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1538,7 +1586,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>22</v>
       </c>
@@ -1766,357 +1814,381 @@
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+    <row r="41" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48">
         <v>3</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
         <v>4</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="44"/>
+    </row>
+    <row r="43" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51">
         <v>5</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="C43" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="33">
-        <v>1</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="C45" s="54">
+        <v>1</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+    </row>
+    <row r="46" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="C46" s="35">
+        <v>1</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+    </row>
+    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="44"/>
+    </row>
+    <row r="49" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="9">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="C49" s="38">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38">
         <v>2</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="E49" s="38"/>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="C50" s="35">
+        <v>1</v>
+      </c>
+      <c r="D50" s="35">
+        <v>1</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="9">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="C51" s="38">
+        <v>1</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="1:6" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="C52" s="35"/>
+      <c r="D52" s="35">
+        <v>1</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="9">
-        <v>1</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10">
+      <c r="C53" s="38">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:6" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="7">
-        <v>1</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8">
+      <c r="C54" s="35">
+        <v>1</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="44">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+    </row>
+    <row r="56" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+    </row>
+    <row r="57" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="45">
-        <v>1</v>
-      </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
+      <c r="C57" s="38">
+        <v>1</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+    </row>
+    <row r="58" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="C58" s="35">
+        <v>1</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+    </row>
+    <row r="59" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="C59" s="38">
+        <v>1</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35">
+        <v>1</v>
+      </c>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+    </row>
+    <row r="61" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="38">
+        <v>1</v>
+      </c>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="42" t="s">
+      <c r="B63" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="C63" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
+        <v>6</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="41">
-        <v>6</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C64" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,10 +1925,14 @@
       <c r="B48" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="35">
+        <v>1</v>
+      </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
-      <c r="F48" s="44"/>
+      <c r="F48" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2037,9 @@
       <c r="B55" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="61"/>
+      <c r="C55" s="61">
+        <v>1</v>
+      </c>
       <c r="D55" s="61"/>
       <c r="E55" s="61"/>
       <c r="F55" s="62"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,10 +1913,14 @@
       <c r="B47" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="57">
+        <v>1</v>
+      </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
+      <c r="F47" s="58">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>Flávio</t>
   </si>
@@ -391,10 +391,13 @@
     <t xml:space="preserve">   Conclusão sprint 2</t>
   </si>
   <si>
-    <t>Conclusão do projeto</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Confirmação Sair</t>
+  </si>
+  <si>
+    <t>Relatórios Finais</t>
+  </si>
+  <si>
+    <t>Conclusão do Projeto</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -531,150 +534,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,27 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,9 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -727,9 +580,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -749,36 +599,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -787,31 +616,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,78 +956,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="52.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="52.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="7"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1198,1007 +1035,1015 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="31" t="s">
+      <c r="C22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>3.3</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
         <v>2</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="9">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8"/>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="10">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
         <v>3</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="50"/>
-    </row>
-    <row r="42" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
         <v>4</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="44"/>
-    </row>
-    <row r="43" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45">
         <v>5</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="C43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="C44" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="54">
-        <v>1</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
-    </row>
-    <row r="46" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="C45" s="34">
+        <v>1</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+    </row>
+    <row r="46" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="35">
-        <v>1</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="44"/>
-    </row>
-    <row r="47" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="57">
-        <v>1</v>
-      </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58">
+      <c r="C47" s="36">
+        <v>1</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+    <row r="48" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="35">
-        <v>1</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="C48" s="22">
+        <v>1</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="38">
-        <v>1</v>
-      </c>
-      <c r="D49" s="38">
+      <c r="C49" s="25">
+        <v>1</v>
+      </c>
+      <c r="D49" s="25">
         <v>2</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="50"/>
-    </row>
-    <row r="50" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="35">
-        <v>1</v>
-      </c>
-      <c r="D50" s="35">
-        <v>1</v>
-      </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="C50" s="22">
+        <v>1</v>
+      </c>
+      <c r="D50" s="22">
+        <v>1</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="38">
-        <v>1</v>
-      </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="50"/>
-    </row>
-    <row r="52" spans="1:6" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="C51" s="25">
+        <v>1</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35">
-        <v>1</v>
-      </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="22">
+        <v>1</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="38">
-        <v>1</v>
-      </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="50">
+      <c r="C53" s="25">
+        <v>1</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="35">
-        <v>1</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="44">
+      <c r="C54" s="22">
+        <v>1</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
+    <row r="55" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="61">
-        <v>1</v>
-      </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
-    </row>
-    <row r="56" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+      <c r="C55" s="25">
+        <v>1</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-    </row>
-    <row r="57" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
+      <c r="C56" s="22">
+        <v>1</v>
+      </c>
+      <c r="D56" s="22">
+        <v>2</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="38">
-        <v>1</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-    </row>
-    <row r="58" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="C57" s="25">
+        <v>1</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="35">
-        <v>1</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-    </row>
-    <row r="59" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="C58" s="22">
+        <v>1</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="38">
-        <v>1</v>
-      </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-    </row>
-    <row r="60" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="C59" s="25">
+        <v>1</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35">
-        <v>1</v>
-      </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-    </row>
-    <row r="61" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22">
+        <v>1</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="25">
+        <v>1</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>6</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="38">
-        <v>1</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
-        <v>6</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>7</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,10 +1913,14 @@
       <c r="B47" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="57">
+        <v>1</v>
+      </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
+      <c r="F47" s="58">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
@@ -2037,7 +2041,9 @@
       <c r="B55" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="61"/>
+      <c r="C55" s="61">
+        <v>1</v>
+      </c>
       <c r="D55" s="61"/>
       <c r="E55" s="61"/>
       <c r="F55" s="62"/>

--- a/Documentacao/matriz de responsabilidades V2.xlsx
+++ b/Documentacao/matriz de responsabilidades V2.xlsx
@@ -957,7 +957,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,8 +2020,12 @@
       <c r="B64" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="C64" s="22">
+        <v>2</v>
+      </c>
+      <c r="D64" s="22">
+        <v>1</v>
+      </c>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
     </row>
